--- a/data/trans_orig/CoPsoQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74DCF2DF-8D6E-4432-95F7-30C38650B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E929F0-62CC-4CE7-A42D-1866988AA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20D57521-3A88-4248-987D-DA7B2DA9C557}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F95014B-9F00-4201-B269-389897968964}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="755">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,2089 +227,2083 @@
     <t>82,7%</t>
   </si>
   <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,94%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,99%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
+    <t>2,55%</t>
+  </si>
+  <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>7,22%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2B82CE-29A5-4726-A2A6-C6694089F22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAF86A-DC40-476C-801B-7803F3441B87}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4771,7 +4765,7 @@
         <v>6511</v>
       </c>
       <c r="N41" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>17</v>
@@ -4975,7 +4969,7 @@
         <v>6511</v>
       </c>
       <c r="N45" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>
@@ -5011,7 +5005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B8A867-53FC-4C72-A071-BA1753EE1901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8EB9E9-C527-4E78-A346-34C698C4F8FE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5357,10 +5351,10 @@
         <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -5372,10 +5366,10 @@
         <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,7 +5458,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5494,13 +5488,13 @@
         <v>308022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>316</v>
@@ -5509,13 +5503,13 @@
         <v>336322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>619</v>
@@ -5524,13 +5518,13 @@
         <v>644344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5539,13 @@
         <v>226264</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" s="7">
         <v>144</v>
@@ -5560,13 +5554,13 @@
         <v>151054</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M12" s="7">
         <v>362</v>
@@ -5575,13 +5569,13 @@
         <v>377318</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5590,13 @@
         <v>58531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -5611,13 +5605,13 @@
         <v>64125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5626,13 +5620,13 @@
         <v>122656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5641,13 @@
         <v>94270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -5662,13 +5656,13 @@
         <v>58754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
@@ -5677,13 +5671,13 @@
         <v>153024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5796,13 @@
         <v>268186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>403</v>
@@ -5817,13 +5811,13 @@
         <v>434155</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -5832,13 +5826,13 @@
         <v>702340</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,10 +5847,10 @@
         <v>248820</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>142</v>
@@ -5958,10 +5952,10 @@
         <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -5970,13 +5964,13 @@
         <v>60345</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>141</v>
@@ -5985,13 +5979,13 @@
         <v>153107</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,37 +6059,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6104,13 @@
         <v>251361</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>352</v>
@@ -6125,13 +6119,13 @@
         <v>397339</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>578</v>
@@ -6140,13 +6134,13 @@
         <v>648700</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6155,13 @@
         <v>208078</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H24" s="7">
         <v>95</v>
@@ -6176,13 +6170,13 @@
         <v>112652</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M24" s="7">
         <v>282</v>
@@ -6191,13 +6185,13 @@
         <v>320730</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6206,13 @@
         <v>87173</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -6227,13 +6221,13 @@
         <v>45577</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>115</v>
@@ -6242,13 +6236,13 @@
         <v>132750</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6257,13 @@
         <v>68004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -6278,13 +6272,13 @@
         <v>60631</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -6293,13 +6287,13 @@
         <v>128636</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,7 +6382,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6418,13 +6412,13 @@
         <v>274170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>344</v>
@@ -6433,13 +6427,13 @@
         <v>379142</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>592</v>
@@ -6448,13 +6442,13 @@
         <v>653312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6463,13 @@
         <v>89546</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -6484,13 +6478,13 @@
         <v>33259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="M30" s="7">
         <v>111</v>
@@ -6499,13 +6493,13 @@
         <v>122805</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6514,13 @@
         <v>32405</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -6535,13 +6529,13 @@
         <v>19990</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -6550,13 +6544,13 @@
         <v>52395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6565,13 @@
         <v>33308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -6586,13 +6580,13 @@
         <v>15409</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -6601,13 +6595,13 @@
         <v>48718</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,7 +6690,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6726,13 +6720,13 @@
         <v>556621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>691</v>
@@ -6744,10 +6738,10 @@
         <v>18</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>1192</v>
@@ -6756,10 +6750,10 @@
         <v>1296758</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>31</v>
@@ -6777,13 +6771,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6798,7 +6792,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6807,13 +6801,13 @@
         <v>1000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6822,13 @@
         <v>1000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6843,13 +6837,13 @@
         <v>1857</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6861,10 +6855,10 @@
         <v>60</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6873,13 @@
         <v>1017</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6894,13 +6888,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6915,7 +6909,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7028,13 @@
         <v>2033943</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H41" s="7">
         <v>2441</v>
@@ -7049,13 +7043,13 @@
         <v>2629524</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M41" s="7">
         <v>4342</v>
@@ -7064,13 +7058,13 @@
         <v>4663467</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7079,13 @@
         <v>811007</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="H42" s="7">
         <v>465</v>
@@ -7100,13 +7094,13 @@
         <v>503080</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>1234</v>
@@ -7115,13 +7109,13 @@
         <v>1314087</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7130,13 @@
         <v>268240</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>190</v>
@@ -7151,13 +7145,13 @@
         <v>206599</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>441</v>
@@ -7166,13 +7160,13 @@
         <v>474839</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7181,13 @@
         <v>313590</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H44" s="7">
         <v>202</v>
@@ -7202,10 +7196,10 @@
         <v>219105</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>288</v>
@@ -7301,7 +7295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6519B7A6-E85C-4DE5-9909-8B5A742E17A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22FE6CC-DA13-48A2-882D-46605781F822}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7446,7 +7440,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7527,7 +7521,7 @@
         <v>38363</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>302</v>
@@ -7560,10 +7554,10 @@
         <v>307</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7572,13 @@
         <v>19770</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -7593,13 +7587,13 @@
         <v>18796</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -7608,13 +7602,13 @@
         <v>38566</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,7 +7623,7 @@
         <v>20977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>318</v>
@@ -7644,7 +7638,7 @@
         <v>20462</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>320</v>
@@ -7659,13 +7653,13 @@
         <v>41439</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,7 +7733,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7754,22 +7748,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7778,13 @@
         <v>246311</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -7799,13 +7793,13 @@
         <v>289828</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -7814,13 +7808,13 @@
         <v>536138</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,13 +7829,13 @@
         <v>197628</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -7850,13 +7844,13 @@
         <v>156573</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>353</v>
@@ -7865,13 +7859,13 @@
         <v>354200</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7880,13 @@
         <v>78224</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -7901,13 +7895,13 @@
         <v>58560</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -7916,13 +7910,13 @@
         <v>136784</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,10 +7934,10 @@
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -7952,13 +7946,13 @@
         <v>58584</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -7967,13 +7961,13 @@
         <v>126917</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8041,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8092,13 +8086,13 @@
         <v>209509</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -8107,13 +8101,13 @@
         <v>343972</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -8122,13 +8116,13 @@
         <v>553481</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8143,13 +8137,13 @@
         <v>258798</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>175</v>
@@ -8158,13 +8152,13 @@
         <v>174916</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -8173,13 +8167,13 @@
         <v>433715</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8245,13 +8239,13 @@
         <v>102730</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -8260,13 +8254,13 @@
         <v>74102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -8278,10 +8272,10 @@
         <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,7 +8349,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8400,13 +8394,13 @@
         <v>278320</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H23" s="7">
         <v>379</v>
@@ -8415,28 +8409,28 @@
         <v>405959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M23" s="7">
         <v>630</v>
       </c>
       <c r="N23" s="7">
-        <v>684279</v>
+        <v>684280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>402</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8451,13 +8445,13 @@
         <v>194586</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H24" s="7">
         <v>120</v>
@@ -8466,13 +8460,13 @@
         <v>132141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M24" s="7">
         <v>297</v>
@@ -8481,13 +8475,13 @@
         <v>326727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8502,13 +8496,13 @@
         <v>86325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -8517,13 +8511,13 @@
         <v>56043</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -8532,13 +8526,13 @@
         <v>142369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,13 +8547,13 @@
         <v>86817</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -8568,13 +8562,13 @@
         <v>54933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M26" s="7">
         <v>129</v>
@@ -8583,13 +8577,13 @@
         <v>141750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>429</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8631,7 +8625,7 @@
         <v>1184</v>
       </c>
       <c r="N27" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -8678,7 +8672,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8708,13 +8702,13 @@
         <v>312192</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H29" s="7">
         <v>343</v>
@@ -8723,13 +8717,13 @@
         <v>390970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M29" s="7">
         <v>621</v>
@@ -8738,13 +8732,13 @@
         <v>703162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8759,13 +8753,13 @@
         <v>88556</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -8774,13 +8768,13 @@
         <v>53027</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -8789,13 +8783,13 @@
         <v>141583</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8810,13 +8804,13 @@
         <v>38276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -8825,13 +8819,13 @@
         <v>23355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -8840,13 +8834,13 @@
         <v>61632</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>90</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8861,13 +8855,13 @@
         <v>38894</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>457</v>
+        <v>284</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -8876,13 +8870,13 @@
         <v>29496</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>462</v>
+        <v>114</v>
       </c>
       <c r="M32" s="7">
         <v>58</v>
@@ -8891,13 +8885,13 @@
         <v>68390</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>457</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9016,10 +9010,10 @@
         <v>585343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>18</v>
@@ -9031,13 +9025,13 @@
         <v>772741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M35" s="7">
         <v>1271</v>
@@ -9046,13 +9040,13 @@
         <v>1358083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9067,13 +9061,13 @@
         <v>3021</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9082,13 +9076,13 @@
         <v>3265</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9097,13 +9091,13 @@
         <v>6285</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>478</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,7 +9118,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9148,13 +9142,13 @@
         <v>934</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9169,13 +9163,13 @@
         <v>2031</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9184,13 +9178,13 @@
         <v>1925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -9202,10 +9196,10 @@
         <v>34</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>254</v>
+        <v>475</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9324,13 +9318,13 @@
         <v>1972028</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H41" s="7">
         <v>2325</v>
@@ -9339,13 +9333,13 @@
         <v>2507370</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M41" s="7">
         <v>4233</v>
@@ -9354,13 +9348,13 @@
         <v>4479398</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9375,13 +9369,13 @@
         <v>780951</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>108</v>
+        <v>487</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H42" s="7">
         <v>559</v>
@@ -9390,13 +9384,13 @@
         <v>572519</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>190</v>
+        <v>491</v>
       </c>
       <c r="M42" s="7">
         <v>1289</v>
@@ -9405,13 +9399,13 @@
         <v>1353470</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9426,13 +9420,13 @@
         <v>321589</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>500</v>
+        <v>152</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="H43" s="7">
         <v>219</v>
@@ -9441,13 +9435,13 @@
         <v>225151</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M43" s="7">
         <v>512</v>
@@ -9456,13 +9450,13 @@
         <v>546740</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>150</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9477,13 +9471,13 @@
         <v>319782</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>425</v>
+        <v>160</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>227</v>
+        <v>503</v>
       </c>
       <c r="H44" s="7">
         <v>235</v>
@@ -9492,13 +9486,13 @@
         <v>239502</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M44" s="7">
         <v>535</v>
@@ -9507,13 +9501,13 @@
         <v>559284</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>349</v>
+        <v>507</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9591,7 +9585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE7D182-94B6-4EE5-9009-4F6440C103BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C67DFA-DC41-4C5B-94FA-7AEF02C736D7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9608,7 +9602,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9715,13 +9709,13 @@
         <v>287669</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H4" s="7">
         <v>153</v>
@@ -9730,13 +9724,13 @@
         <v>266073</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M4" s="7">
         <v>286</v>
@@ -9745,13 +9739,13 @@
         <v>553742</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9766,13 +9760,13 @@
         <v>67426</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -9781,13 +9775,13 @@
         <v>62128</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -9796,13 +9790,13 @@
         <v>129554</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9817,13 +9811,13 @@
         <v>11467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>527</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -9901,7 +9895,7 @@
         <v>540</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>541</v>
@@ -9922,7 +9916,7 @@
         <v>542</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>475</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>543</v>
@@ -9934,13 +9928,13 @@
         <v>7444</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -9949,13 +9943,13 @@
         <v>13818</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10023,13 +10017,13 @@
         <v>302549</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -10038,13 +10032,13 @@
         <v>349617</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="M10" s="7">
         <v>541</v>
@@ -10053,13 +10047,13 @@
         <v>652166</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10074,13 +10068,13 @@
         <v>15105</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -10089,13 +10083,13 @@
         <v>60230</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -10104,13 +10098,13 @@
         <v>75334</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10125,13 +10119,13 @@
         <v>41602</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="H12" s="7">
         <v>38</v>
@@ -10140,13 +10134,13 @@
         <v>40278</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>438</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -10155,13 +10149,13 @@
         <v>81880</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10176,13 +10170,13 @@
         <v>40422</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -10191,13 +10185,13 @@
         <v>20619</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -10206,13 +10200,13 @@
         <v>61042</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10227,13 +10221,13 @@
         <v>28718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>583</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>584</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -10242,13 +10236,13 @@
         <v>28471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>585</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>584</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>586</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -10257,13 +10251,13 @@
         <v>57189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>589</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10331,13 +10325,13 @@
         <v>430230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H16" s="7">
         <v>628</v>
@@ -10346,13 +10340,13 @@
         <v>425824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>594</v>
+        <v>477</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M16" s="7">
         <v>1054</v>
@@ -10361,13 +10355,13 @@
         <v>856053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10382,13 +10376,13 @@
         <v>19883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -10397,13 +10391,13 @@
         <v>84897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -10412,13 +10406,13 @@
         <v>104780</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10433,13 +10427,13 @@
         <v>41535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -10448,13 +10442,13 @@
         <v>47568</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>612</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -10466,10 +10460,10 @@
         <v>289</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>614</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10484,13 +10478,13 @@
         <v>31416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>615</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>617</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -10499,13 +10493,13 @@
         <v>25013</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M19" s="7">
         <v>67</v>
@@ -10514,13 +10508,13 @@
         <v>56429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>533</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10535,13 +10529,13 @@
         <v>34188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>614</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -10550,13 +10544,13 @@
         <v>27145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>625</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -10565,13 +10559,13 @@
         <v>61334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10639,13 +10633,13 @@
         <v>506832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H22" s="7">
         <v>821</v>
@@ -10654,28 +10648,28 @@
         <v>539987</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="M22" s="7">
         <v>1320</v>
       </c>
       <c r="N22" s="7">
-        <v>1046820</v>
+        <v>1046819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10690,13 +10684,13 @@
         <v>35817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>638</v>
+        <v>315</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="H23" s="7">
         <v>134</v>
@@ -10705,28 +10699,28 @@
         <v>87332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>633</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
       </c>
       <c r="N23" s="7">
-        <v>123150</v>
+        <v>123149</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>643</v>
+        <v>529</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10741,13 +10735,13 @@
         <v>50961</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>288</v>
+        <v>636</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="H24" s="7">
         <v>77</v>
@@ -10756,13 +10750,13 @@
         <v>48764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>317</v>
+        <v>639</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>648</v>
+        <v>90</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -10771,13 +10765,13 @@
         <v>99725</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>239</v>
+        <v>642</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>650</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10792,13 +10786,13 @@
         <v>25171</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>546</v>
+        <v>645</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -10807,13 +10801,13 @@
         <v>28836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>648</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -10822,13 +10816,13 @@
         <v>54007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>311</v>
+        <v>650</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>656</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10843,13 +10837,13 @@
         <v>105209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -10858,13 +10852,13 @@
         <v>42342</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>661</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -10873,13 +10867,13 @@
         <v>147551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>455</v>
+        <v>608</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>408</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10921,7 +10915,7 @@
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -10947,13 +10941,13 @@
         <v>455052</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="H28" s="7">
         <v>781</v>
@@ -10962,13 +10956,13 @@
         <v>461414</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M28" s="7">
         <v>1286</v>
@@ -10977,13 +10971,13 @@
         <v>916465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>670</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10998,13 +10992,13 @@
         <v>75770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>524</v>
+        <v>665</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="H29" s="7">
         <v>155</v>
@@ -11013,13 +11007,13 @@
         <v>95586</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="M29" s="7">
         <v>240</v>
@@ -11028,13 +11022,13 @@
         <v>171356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11049,13 +11043,13 @@
         <v>30610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>679</v>
+        <v>594</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>680</v>
+        <v>498</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -11064,13 +11058,13 @@
         <v>21563</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -11079,13 +11073,13 @@
         <v>52173</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>232</v>
+        <v>677</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11103,10 +11097,10 @@
         <v>82</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>686</v>
+        <v>645</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -11115,13 +11109,13 @@
         <v>10153</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -11130,13 +11124,13 @@
         <v>31136</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>692</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11151,13 +11145,13 @@
         <v>17742</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>693</v>
+        <v>541</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -11166,13 +11160,13 @@
         <v>8347</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -11181,13 +11175,13 @@
         <v>26089</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>698</v>
+        <v>644</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11252,16 +11246,16 @@
         <v>797</v>
       </c>
       <c r="D34" s="7">
-        <v>535253</v>
+        <v>535254</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="H34" s="7">
         <v>1338</v>
@@ -11270,13 +11264,13 @@
         <v>822753</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="M34" s="7">
         <v>2135</v>
@@ -11285,13 +11279,13 @@
         <v>1358007</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11306,13 +11300,13 @@
         <v>158041</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>411</v>
+        <v>704</v>
       </c>
       <c r="H35" s="7">
         <v>358</v>
@@ -11321,13 +11315,13 @@
         <v>197422</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M35" s="7">
         <v>582</v>
@@ -11336,13 +11330,13 @@
         <v>355463</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>715</v>
+        <v>494</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11357,13 +11351,13 @@
         <v>1280</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -11372,13 +11366,13 @@
         <v>1080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -11387,13 +11381,13 @@
         <v>2360</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>53</v>
+        <v>713</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11408,13 +11402,13 @@
         <v>1262</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>479</v>
+        <v>714</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -11423,13 +11417,13 @@
         <v>2160</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>722</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>467</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -11438,13 +11432,13 @@
         <v>3423</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>431</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11462,10 +11456,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -11477,10 +11471,10 @@
         <v>33</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -11489,13 +11483,13 @@
         <v>5140</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>712</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>726</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11507,7 +11501,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -11563,13 +11557,13 @@
         <v>2517583</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H40" s="7">
         <v>4040</v>
@@ -11578,13 +11572,13 @@
         <v>2865668</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="M40" s="7">
         <v>6622</v>
@@ -11593,13 +11587,13 @@
         <v>5383251</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11614,13 +11608,13 @@
         <v>372041</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>735</v>
+        <v>635</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="H41" s="7">
         <v>821</v>
@@ -11629,13 +11623,13 @@
         <v>587595</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>273</v>
+        <v>729</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="M41" s="7">
         <v>1221</v>
@@ -11647,7 +11641,7 @@
         <v>304</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>739</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>379</v>
@@ -11665,13 +11659,13 @@
         <v>177455</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>623</v>
+        <v>733</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>625</v>
+        <v>734</v>
       </c>
       <c r="H42" s="7">
         <v>227</v>
@@ -11680,13 +11674,13 @@
         <v>174813</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>92</v>
+        <v>736</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M42" s="7">
         <v>382</v>
@@ -11695,13 +11689,13 @@
         <v>352268</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11716,13 +11710,13 @@
         <v>124000</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>748</v>
+        <v>226</v>
       </c>
       <c r="H43" s="7">
         <v>129</v>
@@ -11731,13 +11725,13 @@
         <v>90533</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>750</v>
+        <v>223</v>
       </c>
       <c r="M43" s="7">
         <v>240</v>
@@ -11746,13 +11740,13 @@
         <v>214532</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>578</v>
+        <v>746</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>684</v>
+        <v>747</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11767,13 +11761,13 @@
         <v>194148</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>640</v>
+        <v>391</v>
       </c>
       <c r="H44" s="7">
         <v>150</v>
@@ -11782,13 +11776,13 @@
         <v>116972</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="M44" s="7">
         <v>278</v>
@@ -11797,13 +11791,13 @@
         <v>311121</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>236</v>
+        <v>753</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11845,7 +11839,7 @@
         <v>8743</v>
       </c>
       <c r="N45" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoPsoQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E929F0-62CC-4CE7-A42D-1866988AA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1649365D-DDD8-4AF3-A57B-D7DE56D9F6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F95014B-9F00-4201-B269-389897968964}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7B8C7D2-A700-4690-8EE8-7A49ED2CF917}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="760">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,16 +227,16 @@
     <t>82,7%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>75,37%</t>
+    <t>75,79%</t>
   </si>
   <si>
     <t>83,17%</t>
@@ -245,2050 +245,2065 @@
     <t>81,19%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
   </si>
   <si>
     <t>3,05%</t>
@@ -2715,7 +2730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAF86A-DC40-476C-801B-7803F3441B87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC6B6AC-DB68-42EA-B98F-5AF2C15344ED}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4735,7 +4750,7 @@
         <v>3214</v>
       </c>
       <c r="D41" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -4939,7 +4954,7 @@
         <v>3214</v>
       </c>
       <c r="D45" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>19</v>
@@ -5005,7 +5020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8EB9E9-C527-4E78-A346-34C698C4F8FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA7B28-0B70-4E7E-B714-59E7E5A48A74}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5850,10 +5865,10 @@
         <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H18" s="7">
         <v>150</v>
@@ -5862,13 +5877,13 @@
         <v>156341</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>395</v>
@@ -5877,13 +5892,13 @@
         <v>405161</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5913,13 @@
         <v>72096</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -5913,13 +5928,13 @@
         <v>60008</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -5928,10 +5943,10 @@
         <v>132104</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>157</v>
@@ -5952,10 +5967,10 @@
         <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -5964,13 +5979,13 @@
         <v>60345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>141</v>
@@ -5982,10 +5997,10 @@
         <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6074,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6074,7 +6089,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6089,7 +6104,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6119,13 @@
         <v>251361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>352</v>
@@ -6119,13 +6134,13 @@
         <v>397339</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>578</v>
@@ -6134,13 +6149,13 @@
         <v>648700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6170,13 @@
         <v>208078</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H24" s="7">
         <v>95</v>
@@ -6170,13 +6185,13 @@
         <v>112652</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>282</v>
@@ -6185,13 +6200,13 @@
         <v>320730</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6221,13 @@
         <v>87173</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -6221,13 +6236,13 @@
         <v>45577</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="M25" s="7">
         <v>115</v>
@@ -6236,13 +6251,13 @@
         <v>132750</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6272,13 @@
         <v>68004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -6272,13 +6287,13 @@
         <v>60631</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -6287,13 +6302,13 @@
         <v>128636</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,7 +6397,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6412,13 +6427,13 @@
         <v>274170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>344</v>
@@ -6427,13 +6442,13 @@
         <v>379142</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>592</v>
@@ -6442,13 +6457,13 @@
         <v>653312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,13 +6478,13 @@
         <v>89546</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -6478,13 +6493,13 @@
         <v>33259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>111</v>
@@ -6493,13 +6508,13 @@
         <v>122805</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6529,13 @@
         <v>32405</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -6529,13 +6544,13 @@
         <v>19990</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -6544,13 +6559,13 @@
         <v>52395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6580,13 @@
         <v>33308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -6580,13 +6595,13 @@
         <v>15409</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -6595,13 +6610,13 @@
         <v>48718</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,7 +6705,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6720,13 +6735,13 @@
         <v>556621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>691</v>
@@ -6738,10 +6753,10 @@
         <v>18</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>1192</v>
@@ -6750,10 +6765,10 @@
         <v>1296758</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>31</v>
@@ -6771,13 +6786,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6792,7 +6807,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6801,13 +6816,13 @@
         <v>1000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,13 +6837,13 @@
         <v>1000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6837,13 +6852,13 @@
         <v>1857</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6855,10 +6870,10 @@
         <v>60</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,13 +6888,13 @@
         <v>1017</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6888,13 +6903,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6909,7 +6924,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +7043,13 @@
         <v>2033943</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H41" s="7">
         <v>2441</v>
@@ -7043,13 +7058,13 @@
         <v>2629524</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M41" s="7">
         <v>4342</v>
@@ -7058,13 +7073,13 @@
         <v>4663467</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7094,13 @@
         <v>811007</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H42" s="7">
         <v>465</v>
@@ -7094,13 +7109,13 @@
         <v>503080</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M42" s="7">
         <v>1234</v>
@@ -7109,13 +7124,13 @@
         <v>1314087</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7145,13 @@
         <v>268240</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H43" s="7">
         <v>190</v>
@@ -7145,13 +7160,13 @@
         <v>206599</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M43" s="7">
         <v>441</v>
@@ -7160,13 +7175,13 @@
         <v>474839</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7196,13 @@
         <v>313590</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H44" s="7">
         <v>202</v>
@@ -7196,13 +7211,13 @@
         <v>219105</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M44" s="7">
         <v>490</v>
@@ -7211,13 +7226,13 @@
         <v>532696</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,7 +7310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22FE6CC-DA13-48A2-882D-46605781F822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B679B5-B8B1-4C72-BD15-EEBC3469F5F6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7312,7 +7327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7440,7 +7455,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7470,7 +7485,7 @@
         <v>340354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>294</v>
@@ -7521,7 +7536,7 @@
         <v>38363</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>302</v>
@@ -7554,10 +7569,10 @@
         <v>307</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7587,13 @@
         <v>19770</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -7587,13 +7602,13 @@
         <v>18796</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -7602,13 +7617,13 @@
         <v>38566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7638,13 @@
         <v>20977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -7638,13 +7653,13 @@
         <v>20462</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>41</v>
@@ -7653,13 +7668,13 @@
         <v>41439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7763,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7763,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7793,13 @@
         <v>246311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -7793,13 +7808,13 @@
         <v>289828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -7808,13 +7823,13 @@
         <v>536138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7844,13 @@
         <v>197628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -7844,13 +7859,13 @@
         <v>156573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M12" s="7">
         <v>353</v>
@@ -7859,13 +7874,13 @@
         <v>354200</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7895,13 @@
         <v>78224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -7895,13 +7910,13 @@
         <v>58560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -7910,13 +7925,13 @@
         <v>136784</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,10 +7949,10 @@
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -7946,13 +7961,13 @@
         <v>58584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -7961,13 +7976,13 @@
         <v>126917</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,7 +8056,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8086,13 +8101,13 @@
         <v>209509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -8101,13 +8116,13 @@
         <v>343972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -8116,13 +8131,13 @@
         <v>553481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8152,13 @@
         <v>258798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>175</v>
@@ -8152,13 +8167,13 @@
         <v>174916</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -8167,13 +8182,13 @@
         <v>433715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8203,13 @@
         <v>98060</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -8203,13 +8218,13 @@
         <v>68396</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>157</v>
@@ -8218,13 +8233,13 @@
         <v>166456</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,13 +8254,13 @@
         <v>102730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -8254,13 +8269,13 @@
         <v>74102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -8272,10 +8287,10 @@
         <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,7 +8364,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8394,13 +8409,13 @@
         <v>278320</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
         <v>379</v>
@@ -8409,28 +8424,28 @@
         <v>405959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>630</v>
       </c>
       <c r="N23" s="7">
-        <v>684280</v>
+        <v>684279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,13 +8460,13 @@
         <v>194586</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="H24" s="7">
         <v>120</v>
@@ -8460,13 +8475,13 @@
         <v>132141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>297</v>
@@ -8475,13 +8490,13 @@
         <v>326727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8496,13 +8511,13 @@
         <v>86325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -8511,13 +8526,13 @@
         <v>56043</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -8529,10 +8544,10 @@
         <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8547,13 +8562,13 @@
         <v>86817</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -8562,13 +8577,13 @@
         <v>54933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="M26" s="7">
         <v>129</v>
@@ -8577,13 +8592,13 @@
         <v>141750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>423</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8625,7 +8640,7 @@
         <v>1184</v>
       </c>
       <c r="N27" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -8672,7 +8687,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8702,13 +8717,13 @@
         <v>312192</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>343</v>
@@ -8717,13 +8732,13 @@
         <v>390970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>621</v>
@@ -8732,13 +8747,13 @@
         <v>703162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8753,13 +8768,13 @@
         <v>88556</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -8768,13 +8783,13 @@
         <v>53027</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>438</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -8783,13 +8798,13 @@
         <v>141583</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>441</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8804,13 +8819,13 @@
         <v>38276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>445</v>
+        <v>159</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -8819,13 +8834,13 @@
         <v>23355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -8834,13 +8849,13 @@
         <v>61632</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8855,13 +8870,13 @@
         <v>38894</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -8870,13 +8885,13 @@
         <v>29496</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>461</v>
       </c>
       <c r="M32" s="7">
         <v>58</v>
@@ -8885,13 +8900,13 @@
         <v>68390</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9010,10 +9025,10 @@
         <v>585343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>459</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>18</v>
@@ -9025,13 +9040,13 @@
         <v>772741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>462</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>463</v>
+        <v>29</v>
       </c>
       <c r="M35" s="7">
         <v>1271</v>
@@ -9040,13 +9055,13 @@
         <v>1358083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9061,13 +9076,13 @@
         <v>3021</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9076,13 +9091,13 @@
         <v>3265</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9091,13 +9106,13 @@
         <v>6285</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9118,7 +9133,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9142,13 +9157,13 @@
         <v>934</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9169,7 +9184,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9178,13 +9193,13 @@
         <v>1925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -9196,10 +9211,10 @@
         <v>34</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>475</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9318,13 +9333,13 @@
         <v>1972028</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H41" s="7">
         <v>2325</v>
@@ -9333,13 +9348,13 @@
         <v>2507370</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>482</v>
+        <v>297</v>
       </c>
       <c r="M41" s="7">
         <v>4233</v>
@@ -9348,13 +9363,13 @@
         <v>4479398</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9369,13 +9384,13 @@
         <v>780951</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H42" s="7">
         <v>559</v>
@@ -9384,13 +9399,13 @@
         <v>572519</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M42" s="7">
         <v>1289</v>
@@ -9399,13 +9414,13 @@
         <v>1353470</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9420,13 +9435,13 @@
         <v>321589</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>154</v>
+        <v>498</v>
       </c>
       <c r="H43" s="7">
         <v>219</v>
@@ -9435,13 +9450,13 @@
         <v>225151</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>497</v>
+        <v>84</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M43" s="7">
         <v>512</v>
@@ -9450,13 +9465,13 @@
         <v>546740</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>499</v>
+        <v>77</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9471,13 +9486,13 @@
         <v>319782</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>160</v>
+        <v>504</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H44" s="7">
         <v>235</v>
@@ -9486,13 +9501,13 @@
         <v>239502</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>506</v>
+        <v>200</v>
       </c>
       <c r="M44" s="7">
         <v>535</v>
@@ -9501,13 +9516,13 @@
         <v>559284</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>282</v>
+        <v>509</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9585,7 +9600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C67DFA-DC41-4C5B-94FA-7AEF02C736D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FA945D-0B8C-4FC0-BC19-8E5B2422BC18}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9602,7 +9617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9709,13 +9724,13 @@
         <v>287669</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H4" s="7">
         <v>153</v>
@@ -9724,13 +9739,13 @@
         <v>266073</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M4" s="7">
         <v>286</v>
@@ -9739,13 +9754,13 @@
         <v>553742</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9760,13 +9775,13 @@
         <v>67426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -9775,13 +9790,13 @@
         <v>62128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>522</v>
+        <v>383</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -9790,13 +9805,13 @@
         <v>129554</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,13 +9826,13 @@
         <v>11467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -9826,13 +9841,13 @@
         <v>15560</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -9841,13 +9856,13 @@
         <v>27027</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9862,13 +9877,13 @@
         <v>4744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -9877,13 +9892,13 @@
         <v>3751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>539</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -9928,7 +9943,7 @@
         <v>7444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>544</v>
@@ -9946,10 +9961,10 @@
         <v>546</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>472</v>
+        <v>547</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10017,13 +10032,13 @@
         <v>302549</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -10032,13 +10047,13 @@
         <v>349617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M10" s="7">
         <v>541</v>
@@ -10047,13 +10062,13 @@
         <v>652166</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10068,13 +10083,13 @@
         <v>15105</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -10083,13 +10098,13 @@
         <v>60230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -10098,7 +10113,7 @@
         <v>75334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>563</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>564</v>
@@ -10134,13 +10149,13 @@
         <v>40278</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>438</v>
+        <v>569</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -10149,13 +10164,13 @@
         <v>81880</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10170,13 +10185,13 @@
         <v>40422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -10185,13 +10200,13 @@
         <v>20619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -10200,13 +10215,13 @@
         <v>61042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10221,13 +10236,13 @@
         <v>28718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>582</v>
+        <v>421</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>583</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>584</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -10236,13 +10251,13 @@
         <v>28471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -10251,13 +10266,13 @@
         <v>57189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10325,13 +10340,13 @@
         <v>430230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H16" s="7">
         <v>628</v>
@@ -10340,13 +10355,13 @@
         <v>425824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M16" s="7">
         <v>1054</v>
@@ -10355,13 +10370,13 @@
         <v>856053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10376,13 +10391,13 @@
         <v>19883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -10391,13 +10406,13 @@
         <v>84897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -10406,13 +10421,13 @@
         <v>104780</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10427,13 +10442,13 @@
         <v>41535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -10442,13 +10457,13 @@
         <v>47568</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>611</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -10457,10 +10472,10 @@
         <v>89103</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>120</v>
@@ -10478,13 +10493,13 @@
         <v>31416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>614</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -10493,13 +10508,13 @@
         <v>25013</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>447</v>
+        <v>616</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M19" s="7">
         <v>67</v>
@@ -10508,13 +10523,13 @@
         <v>56429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10529,13 +10544,13 @@
         <v>34188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -10544,13 +10559,13 @@
         <v>27145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -10559,13 +10574,13 @@
         <v>61334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>619</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10633,13 +10648,13 @@
         <v>506832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="H22" s="7">
         <v>821</v>
@@ -10648,13 +10663,13 @@
         <v>539987</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="M22" s="7">
         <v>1320</v>
@@ -10663,13 +10678,13 @@
         <v>1046819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10684,13 +10699,13 @@
         <v>35817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>636</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="H23" s="7">
         <v>134</v>
@@ -10699,13 +10714,13 @@
         <v>87332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>633</v>
+        <v>396</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -10714,13 +10729,13 @@
         <v>123149</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>635</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10735,13 +10750,13 @@
         <v>50961</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>636</v>
+        <v>452</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>638</v>
+        <v>432</v>
       </c>
       <c r="H24" s="7">
         <v>77</v>
@@ -10750,13 +10765,13 @@
         <v>48764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>639</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -10765,13 +10780,13 @@
         <v>99725</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>77</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10786,13 +10801,13 @@
         <v>25171</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -10801,13 +10816,13 @@
         <v>28836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>648</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -10816,13 +10831,13 @@
         <v>54007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10837,13 +10852,13 @@
         <v>105209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -10852,13 +10867,13 @@
         <v>42342</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -10867,13 +10882,13 @@
         <v>147551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10941,13 +10956,13 @@
         <v>455052</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H28" s="7">
         <v>781</v>
@@ -10956,13 +10971,13 @@
         <v>461414</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M28" s="7">
         <v>1286</v>
@@ -10971,13 +10986,13 @@
         <v>916465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10992,13 +11007,13 @@
         <v>75770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H29" s="7">
         <v>155</v>
@@ -11007,13 +11022,13 @@
         <v>95586</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M29" s="7">
         <v>240</v>
@@ -11022,13 +11037,13 @@
         <v>171356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11043,13 +11058,13 @@
         <v>30610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>498</v>
+        <v>677</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -11058,13 +11073,13 @@
         <v>21563</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -11073,13 +11088,13 @@
         <v>52173</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11097,10 +11112,10 @@
         <v>82</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -11109,13 +11124,13 @@
         <v>10153</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -11124,13 +11139,13 @@
         <v>31136</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11148,10 +11163,10 @@
         <v>541</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -11160,13 +11175,13 @@
         <v>8347</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -11175,13 +11190,13 @@
         <v>26089</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11249,13 +11264,13 @@
         <v>535254</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H34" s="7">
         <v>1338</v>
@@ -11264,13 +11279,13 @@
         <v>822753</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M34" s="7">
         <v>2135</v>
@@ -11279,13 +11294,13 @@
         <v>1358007</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11300,13 +11315,13 @@
         <v>158041</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H35" s="7">
         <v>358</v>
@@ -11315,13 +11330,13 @@
         <v>197422</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M35" s="7">
         <v>582</v>
@@ -11330,13 +11345,13 @@
         <v>355463</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>494</v>
+        <v>711</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11351,13 +11366,13 @@
         <v>1280</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -11366,13 +11381,13 @@
         <v>1080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -11381,13 +11396,13 @@
         <v>2360</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11402,13 +11417,13 @@
         <v>1262</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -11417,13 +11432,13 @@
         <v>2160</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -11432,10 +11447,10 @@
         <v>3423</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>58</v>
@@ -11456,10 +11471,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -11471,10 +11486,10 @@
         <v>33</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -11483,13 +11498,13 @@
         <v>5140</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>723</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11557,13 +11572,13 @@
         <v>2517583</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="H40" s="7">
         <v>4040</v>
@@ -11572,13 +11587,13 @@
         <v>2865668</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="M40" s="7">
         <v>6622</v>
@@ -11587,13 +11602,13 @@
         <v>5383251</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11611,10 +11626,10 @@
         <v>163</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>635</v>
+        <v>192</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="H41" s="7">
         <v>821</v>
@@ -11623,13 +11638,13 @@
         <v>587595</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="M41" s="7">
         <v>1221</v>
@@ -11641,10 +11656,10 @@
         <v>304</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11659,13 +11674,13 @@
         <v>177455</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H42" s="7">
         <v>227</v>
@@ -11674,13 +11689,13 @@
         <v>174813</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="M42" s="7">
         <v>382</v>
@@ -11689,13 +11704,13 @@
         <v>352268</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>740</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11710,13 +11725,13 @@
         <v>124000</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>226</v>
+        <v>747</v>
       </c>
       <c r="H43" s="7">
         <v>129</v>
@@ -11725,13 +11740,13 @@
         <v>90533</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>223</v>
+        <v>750</v>
       </c>
       <c r="M43" s="7">
         <v>240</v>
@@ -11740,13 +11755,13 @@
         <v>214532</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>745</v>
+        <v>451</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>747</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11761,13 +11776,13 @@
         <v>194148</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>391</v>
+        <v>754</v>
       </c>
       <c r="H44" s="7">
         <v>150</v>
@@ -11776,13 +11791,13 @@
         <v>116972</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="M44" s="7">
         <v>278</v>
@@ -11791,13 +11806,13 @@
         <v>311121</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/CoPsoQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1649365D-DDD8-4AF3-A57B-D7DE56D9F6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A9DC00-47B8-4CED-9C4B-395A4E3F0B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7B8C7D2-A700-4690-8EE8-7A49ED2CF917}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23C099CA-BBAC-4658-94B9-188CAF2B3F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="757">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,2098 +227,2089 @@
     <t>82,7%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>3,99%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>7,22%</t>
   </si>
 </sst>
 </file>
@@ -2730,7 +2721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC6B6AC-DB68-42EA-B98F-5AF2C15344ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E578EB-862A-481C-804A-8B0E7900911A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4750,7 +4741,7 @@
         <v>3214</v>
       </c>
       <c r="D41" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -4780,7 +4771,7 @@
         <v>6511</v>
       </c>
       <c r="N41" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>17</v>
@@ -4954,7 +4945,7 @@
         <v>3214</v>
       </c>
       <c r="D45" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>19</v>
@@ -4984,7 +4975,7 @@
         <v>6511</v>
       </c>
       <c r="N45" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>
@@ -5020,7 +5011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA7B28-0B70-4E7E-B714-59E7E5A48A74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AD99ED-9189-4FC3-8B1E-43C82C6A5E99}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5366,10 +5357,10 @@
         <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -5381,10 +5372,10 @@
         <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5464,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5503,13 +5494,13 @@
         <v>308022</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>316</v>
@@ -5518,13 +5509,13 @@
         <v>336322</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>619</v>
@@ -5533,13 +5524,13 @@
         <v>644344</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5545,13 @@
         <v>226264</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H12" s="7">
         <v>144</v>
@@ -5569,13 +5560,13 @@
         <v>151054</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M12" s="7">
         <v>362</v>
@@ -5584,13 +5575,13 @@
         <v>377318</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5596,13 @@
         <v>58531</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -5620,13 +5611,13 @@
         <v>64125</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5635,13 +5626,13 @@
         <v>122656</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5647,13 @@
         <v>94270</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -5671,13 +5662,13 @@
         <v>58754</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
@@ -5686,13 +5677,13 @@
         <v>153024</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5802,13 @@
         <v>268186</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>403</v>
@@ -5826,13 +5817,13 @@
         <v>434155</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -5841,13 +5832,13 @@
         <v>702340</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5853,13 @@
         <v>248820</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H18" s="7">
         <v>150</v>
@@ -5877,13 +5868,13 @@
         <v>156341</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>395</v>
@@ -5892,13 +5883,13 @@
         <v>405161</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5904,13 @@
         <v>72096</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -5928,13 +5919,13 @@
         <v>60008</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -5943,10 +5934,10 @@
         <v>132104</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>157</v>
@@ -5985,7 +5976,7 @@
         <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>141</v>
@@ -5994,13 +5985,13 @@
         <v>153107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,7 +6065,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6089,7 +6080,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6104,7 +6095,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6110,13 @@
         <v>251361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>352</v>
@@ -6134,13 +6125,13 @@
         <v>397339</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>578</v>
@@ -6149,13 +6140,13 @@
         <v>648700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6161,13 @@
         <v>208078</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H24" s="7">
         <v>95</v>
@@ -6185,13 +6176,13 @@
         <v>112652</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M24" s="7">
         <v>282</v>
@@ -6200,13 +6191,13 @@
         <v>320730</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6212,13 @@
         <v>87173</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -6236,13 +6227,13 @@
         <v>45577</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M25" s="7">
         <v>115</v>
@@ -6251,13 +6242,13 @@
         <v>132750</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6263,13 @@
         <v>68004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -6287,13 +6278,13 @@
         <v>60631</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -6302,13 +6293,13 @@
         <v>128636</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,7 +6388,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6427,13 +6418,13 @@
         <v>274170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>344</v>
@@ -6442,13 +6433,13 @@
         <v>379142</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>592</v>
@@ -6457,13 +6448,13 @@
         <v>653312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6469,13 @@
         <v>89546</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -6493,13 +6484,13 @@
         <v>33259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>111</v>
@@ -6508,13 +6499,13 @@
         <v>122805</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6520,13 @@
         <v>32405</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -6544,13 +6535,13 @@
         <v>19990</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -6559,13 +6550,13 @@
         <v>52395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6571,13 @@
         <v>33308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -6595,13 +6586,13 @@
         <v>15409</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -6610,13 +6601,13 @@
         <v>48718</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,7 +6696,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6735,13 +6726,13 @@
         <v>556621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="H35" s="7">
         <v>691</v>
@@ -6753,10 +6744,10 @@
         <v>18</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>1192</v>
@@ -6765,10 +6756,10 @@
         <v>1296758</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>31</v>
@@ -6786,13 +6777,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6807,7 +6798,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6816,7 +6807,7 @@
         <v>1000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
@@ -6837,13 +6828,13 @@
         <v>1000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6852,13 +6843,13 @@
         <v>1857</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6870,10 +6861,10 @@
         <v>60</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6879,13 @@
         <v>1017</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6903,13 +6894,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6924,7 +6915,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7034,13 @@
         <v>2033943</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H41" s="7">
         <v>2441</v>
@@ -7058,13 +7049,13 @@
         <v>2629524</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>4342</v>
@@ -7073,13 +7064,13 @@
         <v>4663467</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7085,13 @@
         <v>811007</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>269</v>
+        <v>145</v>
       </c>
       <c r="H42" s="7">
         <v>465</v>
@@ -7109,13 +7100,13 @@
         <v>503080</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" s="7">
         <v>1234</v>
@@ -7124,13 +7115,13 @@
         <v>1314087</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7136,13 @@
         <v>268240</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H43" s="7">
         <v>190</v>
@@ -7160,13 +7151,13 @@
         <v>206599</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M43" s="7">
         <v>441</v>
@@ -7175,13 +7166,13 @@
         <v>474839</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>283</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7187,13 @@
         <v>313590</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H44" s="7">
         <v>202</v>
@@ -7211,13 +7202,13 @@
         <v>219105</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M44" s="7">
         <v>490</v>
@@ -7226,13 +7217,13 @@
         <v>532696</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,7 +7301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B679B5-B8B1-4C72-BD15-EEBC3469F5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E547CB8-ACE4-4810-A647-DDA0B0F10251}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7327,7 +7318,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7455,7 +7446,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7485,7 +7476,7 @@
         <v>340354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>294</v>
@@ -7536,7 +7527,7 @@
         <v>38363</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>302</v>
@@ -7620,10 +7611,10 @@
         <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7629,13 @@
         <v>20977</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -7653,13 +7644,13 @@
         <v>20462</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>41</v>
@@ -7668,13 +7659,13 @@
         <v>41439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7739,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7763,7 +7754,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7778,7 +7769,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7784,13 @@
         <v>246311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -7808,13 +7799,13 @@
         <v>289828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -7823,13 +7814,13 @@
         <v>536138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7835,13 @@
         <v>197628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -7859,13 +7850,13 @@
         <v>156573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>353</v>
@@ -7874,13 +7865,13 @@
         <v>354200</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7886,13 @@
         <v>78224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -7910,13 +7901,13 @@
         <v>58560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -7925,13 +7916,13 @@
         <v>136784</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,10 +7940,10 @@
         <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -7961,13 +7952,13 @@
         <v>58584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -7976,13 +7967,13 @@
         <v>126917</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,7 +8047,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8101,13 +8092,13 @@
         <v>209509</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -8116,13 +8107,13 @@
         <v>343972</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -8131,13 +8122,13 @@
         <v>553481</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8143,13 @@
         <v>258798</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>175</v>
@@ -8167,13 +8158,13 @@
         <v>174916</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -8182,13 +8173,13 @@
         <v>433715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8194,13 @@
         <v>98060</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -8218,13 +8209,13 @@
         <v>68396</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>157</v>
@@ -8233,13 +8224,13 @@
         <v>166456</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8245,13 @@
         <v>102730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -8269,13 +8260,13 @@
         <v>74102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -8287,10 +8278,10 @@
         <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,7 +8355,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8409,13 +8400,13 @@
         <v>278320</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>379</v>
@@ -8424,13 +8415,13 @@
         <v>405959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>630</v>
@@ -8439,13 +8430,13 @@
         <v>684279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,13 +8451,13 @@
         <v>194586</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H24" s="7">
         <v>120</v>
@@ -8475,13 +8466,13 @@
         <v>132141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M24" s="7">
         <v>297</v>
@@ -8490,13 +8481,13 @@
         <v>326727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8502,13 @@
         <v>86325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -8526,13 +8517,13 @@
         <v>56043</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -8541,13 +8532,13 @@
         <v>142369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,13 +8553,13 @@
         <v>86817</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -8577,13 +8568,13 @@
         <v>54933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M26" s="7">
         <v>129</v>
@@ -8592,13 +8583,13 @@
         <v>141750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8687,7 +8678,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8717,13 +8708,13 @@
         <v>312192</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>343</v>
@@ -8732,13 +8723,13 @@
         <v>390970</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>621</v>
@@ -8747,13 +8738,13 @@
         <v>703162</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8768,13 +8759,13 @@
         <v>88556</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -8783,13 +8774,13 @@
         <v>53027</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -8798,13 +8789,13 @@
         <v>141583</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,13 +8810,13 @@
         <v>38276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>159</v>
+        <v>451</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -8834,13 +8825,13 @@
         <v>23355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -8849,13 +8840,13 @@
         <v>61632</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>455</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8870,13 +8861,13 @@
         <v>38894</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -8885,13 +8876,13 @@
         <v>29496</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M32" s="7">
         <v>58</v>
@@ -8900,10 +8891,10 @@
         <v>68390</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>463</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>464</v>
@@ -9025,10 +9016,10 @@
         <v>585343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>465</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>18</v>
@@ -9040,13 +9031,13 @@
         <v>772741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>468</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>29</v>
+        <v>469</v>
       </c>
       <c r="M35" s="7">
         <v>1271</v>
@@ -9055,13 +9046,13 @@
         <v>1358083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9076,13 +9067,13 @@
         <v>3021</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9091,13 +9082,13 @@
         <v>3265</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9106,13 +9097,13 @@
         <v>6285</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,7 +9124,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9157,13 +9148,13 @@
         <v>934</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9178,13 +9169,13 @@
         <v>2031</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9193,13 +9184,13 @@
         <v>1925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -9211,10 +9202,10 @@
         <v>34</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9333,13 +9324,13 @@
         <v>1972028</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H41" s="7">
         <v>2325</v>
@@ -9348,13 +9339,13 @@
         <v>2507370</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>297</v>
+        <v>488</v>
       </c>
       <c r="M41" s="7">
         <v>4233</v>
@@ -9363,13 +9354,13 @@
         <v>4479398</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9384,13 +9375,13 @@
         <v>780951</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>489</v>
+        <v>108</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H42" s="7">
         <v>559</v>
@@ -9399,13 +9390,13 @@
         <v>572519</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="M42" s="7">
         <v>1289</v>
@@ -9414,13 +9405,13 @@
         <v>1353470</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9435,13 +9426,13 @@
         <v>321589</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>203</v>
+        <v>500</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>498</v>
+        <v>346</v>
       </c>
       <c r="H43" s="7">
         <v>219</v>
@@ -9450,13 +9441,13 @@
         <v>225151</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M43" s="7">
         <v>512</v>
@@ -9465,13 +9456,13 @@
         <v>546740</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>502</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9486,13 +9477,13 @@
         <v>319782</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>505</v>
+        <v>227</v>
       </c>
       <c r="H44" s="7">
         <v>235</v>
@@ -9507,7 +9498,7 @@
         <v>507</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>200</v>
+        <v>508</v>
       </c>
       <c r="M44" s="7">
         <v>535</v>
@@ -9516,13 +9507,13 @@
         <v>559284</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>508</v>
+        <v>349</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,7 +9591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FA945D-0B8C-4FC0-BC19-8E5B2422BC18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDA7311-7A58-4C32-B74D-7904E06524F8}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9617,7 +9608,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9724,13 +9715,13 @@
         <v>287669</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H4" s="7">
         <v>153</v>
@@ -9739,13 +9730,13 @@
         <v>266073</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M4" s="7">
         <v>286</v>
@@ -9754,13 +9745,13 @@
         <v>553742</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9775,7 +9766,7 @@
         <v>67426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>520</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>521</v>
@@ -9793,10 +9784,10 @@
         <v>523</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>383</v>
+        <v>524</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -9805,13 +9796,13 @@
         <v>129554</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9826,13 +9817,13 @@
         <v>11467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>528</v>
+        <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>529</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>530</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -9841,13 +9832,13 @@
         <v>15560</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -9856,13 +9847,13 @@
         <v>27027</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9877,13 +9868,13 @@
         <v>4744</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -9892,13 +9883,13 @@
         <v>3751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>539</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -9910,7 +9901,7 @@
         <v>540</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>541</v>
@@ -9931,7 +9922,7 @@
         <v>542</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>475</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>543</v>
@@ -9943,13 +9934,13 @@
         <v>7444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -9958,13 +9949,13 @@
         <v>13818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10032,13 +10023,13 @@
         <v>302549</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -10047,13 +10038,13 @@
         <v>349617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M10" s="7">
         <v>541</v>
@@ -10062,13 +10053,13 @@
         <v>652166</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10083,13 +10074,13 @@
         <v>15105</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -10098,13 +10089,13 @@
         <v>60230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -10113,13 +10104,13 @@
         <v>75334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>90</v>
+        <v>565</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10134,13 +10125,13 @@
         <v>41602</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H12" s="7">
         <v>38</v>
@@ -10149,13 +10140,13 @@
         <v>40278</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>569</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>570</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>431</v>
+        <v>159</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -10236,7 +10227,7 @@
         <v>28718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>561</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>583</v>
@@ -10254,10 +10245,10 @@
         <v>585</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -10266,13 +10257,13 @@
         <v>57189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10340,13 +10331,13 @@
         <v>430230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H16" s="7">
         <v>628</v>
@@ -10355,13 +10346,13 @@
         <v>425824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>594</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M16" s="7">
         <v>1054</v>
@@ -10370,13 +10361,13 @@
         <v>856053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10391,13 +10382,13 @@
         <v>19883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -10406,13 +10397,13 @@
         <v>84897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -10421,13 +10412,13 @@
         <v>104780</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10442,13 +10433,13 @@
         <v>41535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -10457,13 +10448,13 @@
         <v>47568</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -10472,13 +10463,13 @@
         <v>89103</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10493,13 +10484,13 @@
         <v>31416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -10508,10 +10499,10 @@
         <v>25013</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>570</v>
@@ -10523,13 +10514,13 @@
         <v>56429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>534</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10544,13 +10535,13 @@
         <v>34188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>621</v>
+        <v>464</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -10559,13 +10550,13 @@
         <v>27145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>625</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -10574,13 +10565,13 @@
         <v>61334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10648,13 +10639,13 @@
         <v>506832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H22" s="7">
         <v>821</v>
@@ -10663,28 +10654,28 @@
         <v>539987</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M22" s="7">
         <v>1320</v>
       </c>
       <c r="N22" s="7">
-        <v>1046819</v>
+        <v>1046820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10699,13 +10690,13 @@
         <v>35817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H23" s="7">
         <v>134</v>
@@ -10714,28 +10705,28 @@
         <v>87332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
       </c>
       <c r="N23" s="7">
-        <v>123149</v>
+        <v>123150</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>643</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10750,13 +10741,13 @@
         <v>50961</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>452</v>
+        <v>288</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>432</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>77</v>
@@ -10765,13 +10756,13 @@
         <v>48764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>286</v>
+        <v>648</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -10780,13 +10771,13 @@
         <v>99725</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>644</v>
+        <v>239</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10801,13 +10792,13 @@
         <v>25171</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>648</v>
+        <v>546</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -10816,13 +10807,13 @@
         <v>28836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -10831,13 +10822,13 @@
         <v>54007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>652</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10852,13 +10843,13 @@
         <v>105209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -10867,13 +10858,13 @@
         <v>42342</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>661</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -10882,13 +10873,13 @@
         <v>147551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>612</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>658</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10930,7 +10921,7 @@
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -10956,13 +10947,13 @@
         <v>455052</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H28" s="7">
         <v>781</v>
@@ -10971,13 +10962,13 @@
         <v>461414</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="M28" s="7">
         <v>1286</v>
@@ -10986,13 +10977,13 @@
         <v>916465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>212</v>
+        <v>670</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11007,13 +10998,13 @@
         <v>75770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>667</v>
+        <v>524</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="H29" s="7">
         <v>155</v>
@@ -11022,13 +11013,13 @@
         <v>95586</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>671</v>
+        <v>576</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="M29" s="7">
         <v>240</v>
@@ -11037,13 +11028,13 @@
         <v>171356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11058,13 +11049,13 @@
         <v>30610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>597</v>
+        <v>679</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -11073,13 +11064,13 @@
         <v>21563</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -11088,13 +11079,13 @@
         <v>52173</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>680</v>
+        <v>232</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>682</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11112,10 +11103,10 @@
         <v>82</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -11124,13 +11115,13 @@
         <v>10153</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -11139,13 +11130,13 @@
         <v>31136</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>597</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11160,13 +11151,13 @@
         <v>17742</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>541</v>
+        <v>693</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -11175,13 +11166,13 @@
         <v>8347</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -11190,13 +11181,13 @@
         <v>26089</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11261,16 +11252,16 @@
         <v>797</v>
       </c>
       <c r="D34" s="7">
-        <v>535254</v>
+        <v>535253</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H34" s="7">
         <v>1338</v>
@@ -11279,13 +11270,13 @@
         <v>822753</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M34" s="7">
         <v>2135</v>
@@ -11294,13 +11285,13 @@
         <v>1358007</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11315,13 +11306,13 @@
         <v>158041</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>707</v>
+        <v>411</v>
       </c>
       <c r="H35" s="7">
         <v>358</v>
@@ -11330,13 +11321,13 @@
         <v>197422</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="M35" s="7">
         <v>582</v>
@@ -11345,13 +11336,13 @@
         <v>355463</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11366,13 +11357,13 @@
         <v>1280</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -11381,13 +11372,13 @@
         <v>1080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -11396,13 +11387,13 @@
         <v>2360</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>717</v>
+        <v>53</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11417,13 +11408,13 @@
         <v>1262</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>718</v>
+        <v>479</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -11432,13 +11423,13 @@
         <v>2160</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>722</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>470</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -11447,13 +11438,13 @@
         <v>3423</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>58</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11471,10 +11462,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -11486,10 +11477,10 @@
         <v>33</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -11498,13 +11489,13 @@
         <v>5140</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>716</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11516,7 +11507,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -11572,13 +11563,13 @@
         <v>2517583</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>724</v>
+        <v>670</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H40" s="7">
         <v>4040</v>
@@ -11587,13 +11578,13 @@
         <v>2865668</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M40" s="7">
         <v>6622</v>
@@ -11602,13 +11593,13 @@
         <v>5383251</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11623,13 +11614,13 @@
         <v>372041</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>192</v>
+        <v>735</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="H41" s="7">
         <v>821</v>
@@ -11638,13 +11629,13 @@
         <v>587595</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>734</v>
+        <v>273</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M41" s="7">
         <v>1221</v>
@@ -11656,10 +11647,10 @@
         <v>304</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>204</v>
+        <v>739</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11674,13 +11665,13 @@
         <v>177455</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>738</v>
+        <v>623</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>739</v>
+        <v>625</v>
       </c>
       <c r="H42" s="7">
         <v>227</v>
@@ -11689,10 +11680,10 @@
         <v>174813</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>741</v>
+        <v>92</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>742</v>
@@ -11710,7 +11701,7 @@
         <v>744</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>457</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11725,13 +11716,13 @@
         <v>124000</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H43" s="7">
         <v>129</v>
@@ -11740,7 +11731,7 @@
         <v>90533</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>748</v>
+        <v>697</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>749</v>
@@ -11755,13 +11746,13 @@
         <v>214532</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>451</v>
+        <v>751</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>751</v>
+        <v>578</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>89</v>
+        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11782,7 +11773,7 @@
         <v>753</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>754</v>
+        <v>640</v>
       </c>
       <c r="H44" s="7">
         <v>150</v>
@@ -11791,13 +11782,13 @@
         <v>116972</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>756</v>
+        <v>682</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>745</v>
+        <v>655</v>
       </c>
       <c r="M44" s="7">
         <v>278</v>
@@ -11806,13 +11797,13 @@
         <v>311121</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>758</v>
+        <v>236</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11854,7 +11845,7 @@
         <v>8743</v>
       </c>
       <c r="N45" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>
